--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/因卓教育阶段二功能点.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/因卓教育阶段二功能点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="451">
   <si>
     <t>程序员客栈 — 因卓教育</t>
   </si>
@@ -1584,6 +1584,26 @@
   </si>
   <si>
     <t>使用新的导航，并且页面样式变更为在界面上方横排显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因卓教育阶段二功能V2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据因卓教育阶段二原型设计整理，作为报价的基准文档</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1898,7 +1918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2061,6 +2081,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2073,25 +2099,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,6 +2171,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,11 +2186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3290,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -3677,7 +3703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="13.5" customHeight="1">
+    <row r="16" spans="1:256" ht="14.4">
       <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
@@ -3686,6 +3712,17 @@
       </c>
       <c r="D16" s="23" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="28.8">
+      <c r="B17" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="24">
+        <v>20170921</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3724,14 +3761,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.05" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="28" t="s">
         <v>313</v>
       </c>
@@ -3772,10 +3809,10 @@
       <c r="A4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="54" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="38" t="s">
@@ -3788,8 +3825,8 @@
     </row>
     <row r="5" spans="1:7" ht="26.1" customHeight="1">
       <c r="A5" s="52"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="38" t="s">
         <v>40</v>
       </c>
@@ -3800,8 +3837,8 @@
     </row>
     <row r="6" spans="1:7" ht="26.1" customHeight="1">
       <c r="A6" s="52"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="38" t="s">
         <v>42</v>
       </c>
@@ -3812,8 +3849,8 @@
     </row>
     <row r="7" spans="1:7" ht="26.1" customHeight="1">
       <c r="A7" s="52"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -3824,8 +3861,8 @@
     </row>
     <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="52"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="38" t="s">
         <v>46</v>
       </c>
@@ -3836,8 +3873,8 @@
     </row>
     <row r="9" spans="1:7" ht="46.8">
       <c r="A9" s="52"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="38" t="s">
         <v>277</v>
       </c>
@@ -3848,8 +3885,8 @@
     </row>
     <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="52"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="38" t="s">
         <v>47</v>
       </c>
@@ -3858,8 +3895,8 @@
     </row>
     <row r="11" spans="1:7" ht="26.1" customHeight="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="38" t="s">
         <v>48</v>
       </c>
@@ -3870,7 +3907,7 @@
     </row>
     <row r="12" spans="1:7" ht="46.8">
       <c r="A12" s="52"/>
-      <c r="B12" s="63"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="38" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +3919,7 @@
     </row>
     <row r="13" spans="1:7" ht="31.2">
       <c r="A13" s="52"/>
-      <c r="B13" s="63"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="38" t="s">
         <v>280</v>
       </c>
@@ -3894,7 +3931,7 @@
     </row>
     <row r="14" spans="1:7" ht="26.1" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="63"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="38" t="s">
         <v>51</v>
       </c>
@@ -3906,7 +3943,7 @@
     </row>
     <row r="15" spans="1:7" ht="26.1" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="63"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="39" t="s">
         <v>52</v>
       </c>
@@ -3918,7 +3955,7 @@
     </row>
     <row r="16" spans="1:7" ht="26.1" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="54" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -3932,7 +3969,7 @@
     </row>
     <row r="17" spans="1:6" ht="26.1" customHeight="1">
       <c r="A17" s="52"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="38" t="s">
         <v>57</v>
       </c>
@@ -3943,13 +3980,13 @@
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" ht="31.2">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="59" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="40" t="s">
@@ -3961,9 +3998,9 @@
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="15.6">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="40" t="s">
         <v>287</v>
       </c>
@@ -3973,8 +4010,8 @@
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" ht="15.6">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="41" t="s">
         <v>288</v>
       </c>
@@ -3983,7 +4020,7 @@
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="40" t="s">
         <v>296</v>
       </c>
@@ -3997,11 +4034,11 @@
       <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>299</v>
       </c>
       <c r="D22" s="40" t="s">
@@ -4013,9 +4050,9 @@
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" ht="15.6">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="58"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="40" t="s">
         <v>303</v>
       </c>
@@ -4025,9 +4062,9 @@
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="15.6">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="52"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="40" t="s">
         <v>304</v>
       </c>
@@ -4037,9 +4074,9 @@
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" ht="31.2">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="52"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="40" t="s">
         <v>306</v>
       </c>
@@ -4049,7 +4086,7 @@
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="31.2">
-      <c r="A26" s="58"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="52" t="s">
         <v>291</v>
       </c>
@@ -4063,7 +4100,7 @@
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" ht="15.6">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="52"/>
       <c r="C27" s="40" t="s">
         <v>309</v>
@@ -4081,7 +4118,7 @@
       <c r="B28" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="59" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="40" t="s">
@@ -4095,7 +4132,7 @@
     <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="52"/>
       <c r="B29" s="52"/>
-      <c r="C29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="40" t="s">
         <v>293</v>
       </c>
@@ -4955,10 +4992,10 @@
       <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:7" ht="15.6">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="59" t="s">
         <v>324</v>
       </c>
       <c r="C99" s="40" t="s">
@@ -4972,8 +5009,8 @@
       <c r="G99" s="29"/>
     </row>
     <row r="100" spans="1:7" ht="15.6">
-      <c r="A100" s="58"/>
-      <c r="B100" s="59"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="60"/>
       <c r="C100" s="40" t="s">
         <v>326</v>
       </c>
@@ -4984,7 +5021,7 @@
       <c r="F100" s="40"/>
     </row>
     <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="58"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="53" t="s">
         <v>323</v>
       </c>
@@ -4996,7 +5033,7 @@
       <c r="F101" s="42"/>
     </row>
     <row r="102" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A102" s="58"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="53"/>
       <c r="C102" s="42" t="s">
         <v>171</v>
@@ -5006,7 +5043,7 @@
       <c r="F102" s="42"/>
     </row>
     <row r="103" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A103" s="58"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="53" t="s">
         <v>172</v>
       </c>
@@ -5018,7 +5055,7 @@
       <c r="F103" s="42"/>
     </row>
     <row r="104" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A104" s="58"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="53"/>
       <c r="C104" s="42" t="s">
         <v>328</v>
@@ -5030,7 +5067,7 @@
       <c r="F104" s="42"/>
     </row>
     <row r="105" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A105" s="58"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="53"/>
       <c r="C105" s="53" t="s">
         <v>173</v>
@@ -5044,7 +5081,7 @@
       <c r="F105" s="42"/>
     </row>
     <row r="106" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A106" s="58"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="53"/>
       <c r="C106" s="53"/>
       <c r="D106" s="42" t="s">
@@ -5056,7 +5093,7 @@
       <c r="F106" s="42"/>
     </row>
     <row r="107" spans="1:7" ht="31.2">
-      <c r="A107" s="58"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="53"/>
       <c r="C107" s="53"/>
       <c r="D107" s="42" t="s">
@@ -5068,7 +5105,7 @@
       <c r="F107" s="42"/>
     </row>
     <row r="108" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A108" s="58"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="53"/>
       <c r="C108" s="53"/>
       <c r="D108" s="42" t="s">
@@ -5080,7 +5117,7 @@
       <c r="F108" s="42"/>
     </row>
     <row r="109" spans="1:7" ht="31.2">
-      <c r="A109" s="58"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="53"/>
       <c r="C109" s="53"/>
       <c r="D109" s="42" t="s">
@@ -5092,7 +5129,7 @@
       <c r="F109" s="42"/>
     </row>
     <row r="110" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A110" s="58"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="53"/>
       <c r="C110" s="53"/>
       <c r="D110" s="42" t="s">
@@ -5104,7 +5141,7 @@
       <c r="F110" s="42"/>
     </row>
     <row r="111" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A111" s="58"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="53"/>
       <c r="C111" s="53"/>
       <c r="D111" s="42" t="s">
@@ -5116,7 +5153,7 @@
       <c r="F111" s="42"/>
     </row>
     <row r="112" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A112" s="58"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="53"/>
       <c r="C112" s="53"/>
       <c r="D112" s="42" t="s">
@@ -5127,7 +5164,7 @@
       <c r="G112" s="29"/>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A113" s="58"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="53"/>
       <c r="C113" s="53"/>
       <c r="D113" s="42" t="s">
@@ -5139,7 +5176,7 @@
       <c r="F113" s="42"/>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A114" s="58"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="53"/>
       <c r="C114" s="42" t="s">
         <v>181</v>
@@ -5151,7 +5188,7 @@
       <c r="F114" s="42"/>
     </row>
     <row r="115" spans="1:7" ht="15.6">
-      <c r="A115" s="58"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="53"/>
       <c r="C115" s="42" t="s">
         <v>183</v>
@@ -5163,7 +5200,7 @@
       <c r="F115" s="42"/>
     </row>
     <row r="116" spans="1:7" ht="31.2">
-      <c r="A116" s="58"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="53" t="s">
         <v>185</v>
       </c>
@@ -5177,7 +5214,7 @@
       <c r="F116" s="42"/>
     </row>
     <row r="117" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A117" s="58"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="53"/>
       <c r="C117" s="42" t="s">
         <v>187</v>
@@ -5187,7 +5224,7 @@
       <c r="F117" s="42"/>
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A118" s="58"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="53"/>
       <c r="C118" s="42" t="s">
         <v>188</v>
@@ -5197,7 +5234,7 @@
       <c r="F118" s="42"/>
     </row>
     <row r="119" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A119" s="59"/>
+      <c r="A119" s="60"/>
       <c r="B119" s="53"/>
       <c r="C119" s="42" t="s">
         <v>189</v>
@@ -5332,7 +5369,7 @@
     <row r="129" spans="1:6" ht="13.5" customHeight="1">
       <c r="A129" s="53"/>
       <c r="B129" s="53"/>
-      <c r="C129" s="54" t="s">
+      <c r="C129" s="56" t="s">
         <v>344</v>
       </c>
       <c r="D129" s="42" t="s">
@@ -5346,7 +5383,7 @@
     <row r="130" spans="1:6" ht="13.5" customHeight="1">
       <c r="A130" s="53"/>
       <c r="B130" s="53"/>
-      <c r="C130" s="55"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="42" t="s">
         <v>353</v>
       </c>
@@ -5358,7 +5395,7 @@
     <row r="131" spans="1:6" ht="13.5" customHeight="1">
       <c r="A131" s="53"/>
       <c r="B131" s="53"/>
-      <c r="C131" s="55"/>
+      <c r="C131" s="57"/>
       <c r="D131" s="42" t="s">
         <v>355</v>
       </c>
@@ -5370,7 +5407,7 @@
     <row r="132" spans="1:6" ht="31.2">
       <c r="A132" s="53"/>
       <c r="B132" s="53"/>
-      <c r="C132" s="55"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="42" t="s">
         <v>357</v>
       </c>
@@ -5382,7 +5419,7 @@
     <row r="133" spans="1:6" ht="13.5" customHeight="1">
       <c r="A133" s="53"/>
       <c r="B133" s="53"/>
-      <c r="C133" s="58"/>
+      <c r="C133" s="61"/>
       <c r="D133" s="42" t="s">
         <v>50</v>
       </c>
@@ -5394,7 +5431,7 @@
     <row r="134" spans="1:6" ht="13.5" customHeight="1">
       <c r="A134" s="53"/>
       <c r="B134" s="53"/>
-      <c r="C134" s="58"/>
+      <c r="C134" s="61"/>
       <c r="D134" s="42" t="s">
         <v>51</v>
       </c>
@@ -5406,7 +5443,7 @@
     <row r="135" spans="1:6" ht="13.5" customHeight="1">
       <c r="A135" s="53"/>
       <c r="B135" s="53"/>
-      <c r="C135" s="58"/>
+      <c r="C135" s="61"/>
       <c r="D135" s="53" t="s">
         <v>365</v>
       </c>
@@ -5418,7 +5455,7 @@
     <row r="136" spans="1:6" ht="109.2">
       <c r="A136" s="53"/>
       <c r="B136" s="53"/>
-      <c r="C136" s="58"/>
+      <c r="C136" s="61"/>
       <c r="D136" s="53"/>
       <c r="E136" s="42" t="s">
         <v>346</v>
@@ -5428,7 +5465,7 @@
     <row r="137" spans="1:6" ht="13.5" customHeight="1">
       <c r="A137" s="53"/>
       <c r="B137" s="53"/>
-      <c r="C137" s="58"/>
+      <c r="C137" s="61"/>
       <c r="D137" s="53"/>
       <c r="E137" s="42" t="s">
         <v>150</v>
@@ -5438,7 +5475,7 @@
     <row r="138" spans="1:6" ht="109.2">
       <c r="A138" s="53"/>
       <c r="B138" s="53"/>
-      <c r="C138" s="58"/>
+      <c r="C138" s="61"/>
       <c r="D138" s="43" t="s">
         <v>364</v>
       </c>
@@ -5450,7 +5487,7 @@
     <row r="139" spans="1:6" ht="109.2">
       <c r="A139" s="53"/>
       <c r="B139" s="53"/>
-      <c r="C139" s="58"/>
+      <c r="C139" s="61"/>
       <c r="D139" s="53" t="s">
         <v>369</v>
       </c>
@@ -5462,7 +5499,7 @@
     <row r="140" spans="1:6" ht="13.5" customHeight="1">
       <c r="A140" s="53"/>
       <c r="B140" s="53"/>
-      <c r="C140" s="58"/>
+      <c r="C140" s="61"/>
       <c r="D140" s="53"/>
       <c r="E140" s="42" t="s">
         <v>348</v>
@@ -5472,7 +5509,7 @@
     <row r="141" spans="1:6" ht="13.5" customHeight="1">
       <c r="A141" s="53"/>
       <c r="B141" s="53"/>
-      <c r="C141" s="58"/>
+      <c r="C141" s="61"/>
       <c r="D141" s="53"/>
       <c r="E141" s="42" t="s">
         <v>349</v>
@@ -5482,7 +5519,7 @@
     <row r="142" spans="1:6" ht="13.5" customHeight="1">
       <c r="A142" s="53"/>
       <c r="B142" s="53"/>
-      <c r="C142" s="58"/>
+      <c r="C142" s="61"/>
       <c r="D142" s="53"/>
       <c r="E142" s="42" t="s">
         <v>350</v>
@@ -5492,7 +5529,7 @@
     <row r="143" spans="1:6" ht="13.5" customHeight="1">
       <c r="A143" s="53"/>
       <c r="B143" s="53"/>
-      <c r="C143" s="58"/>
+      <c r="C143" s="61"/>
       <c r="D143" s="53"/>
       <c r="E143" s="42" t="s">
         <v>351</v>
@@ -5502,7 +5539,7 @@
     <row r="144" spans="1:6" ht="109.2">
       <c r="A144" s="53"/>
       <c r="B144" s="53"/>
-      <c r="C144" s="58"/>
+      <c r="C144" s="61"/>
       <c r="D144" s="53" t="s">
         <v>370</v>
       </c>
@@ -5514,7 +5551,7 @@
     <row r="145" spans="1:6" ht="13.5" customHeight="1">
       <c r="A145" s="53"/>
       <c r="B145" s="53"/>
-      <c r="C145" s="58"/>
+      <c r="C145" s="61"/>
       <c r="D145" s="53"/>
       <c r="E145" s="42" t="s">
         <v>348</v>
@@ -5524,7 +5561,7 @@
     <row r="146" spans="1:6" ht="13.5" customHeight="1">
       <c r="A146" s="53"/>
       <c r="B146" s="53"/>
-      <c r="C146" s="58"/>
+      <c r="C146" s="61"/>
       <c r="D146" s="53"/>
       <c r="E146" s="42" t="s">
         <v>349</v>
@@ -5534,7 +5571,7 @@
     <row r="147" spans="1:6" ht="13.5" customHeight="1">
       <c r="A147" s="53"/>
       <c r="B147" s="53"/>
-      <c r="C147" s="58"/>
+      <c r="C147" s="61"/>
       <c r="D147" s="53"/>
       <c r="E147" s="42" t="s">
         <v>350</v>
@@ -5544,7 +5581,7 @@
     <row r="148" spans="1:6" ht="13.5" customHeight="1">
       <c r="A148" s="53"/>
       <c r="B148" s="53"/>
-      <c r="C148" s="58"/>
+      <c r="C148" s="61"/>
       <c r="D148" s="53"/>
       <c r="E148" s="42" t="s">
         <v>351</v>
@@ -5554,7 +5591,7 @@
     <row r="149" spans="1:6" ht="13.5" customHeight="1">
       <c r="A149" s="53"/>
       <c r="B149" s="53"/>
-      <c r="C149" s="58"/>
+      <c r="C149" s="61"/>
       <c r="D149" s="53" t="s">
         <v>371</v>
       </c>
@@ -5566,7 +5603,7 @@
     <row r="150" spans="1:6" ht="109.2">
       <c r="A150" s="53"/>
       <c r="B150" s="53"/>
-      <c r="C150" s="58"/>
+      <c r="C150" s="61"/>
       <c r="D150" s="53"/>
       <c r="E150" s="42" t="s">
         <v>346</v>
@@ -5576,7 +5613,7 @@
     <row r="151" spans="1:6" ht="13.5" customHeight="1">
       <c r="A151" s="53"/>
       <c r="B151" s="53"/>
-      <c r="C151" s="58"/>
+      <c r="C151" s="61"/>
       <c r="D151" s="53"/>
       <c r="E151" s="42" t="s">
         <v>150</v>
@@ -5586,7 +5623,7 @@
     <row r="152" spans="1:6" ht="109.2">
       <c r="A152" s="53"/>
       <c r="B152" s="53"/>
-      <c r="C152" s="58"/>
+      <c r="C152" s="61"/>
       <c r="D152" s="43" t="s">
         <v>372</v>
       </c>
@@ -5598,7 +5635,7 @@
     <row r="153" spans="1:6" ht="93.6">
       <c r="A153" s="53"/>
       <c r="B153" s="53"/>
-      <c r="C153" s="58"/>
+      <c r="C153" s="61"/>
       <c r="D153" s="53" t="s">
         <v>367</v>
       </c>
@@ -5610,7 +5647,7 @@
     <row r="154" spans="1:6" ht="13.5" customHeight="1">
       <c r="A154" s="53"/>
       <c r="B154" s="53"/>
-      <c r="C154" s="58"/>
+      <c r="C154" s="61"/>
       <c r="D154" s="53"/>
       <c r="E154" s="42" t="s">
         <v>348</v>
@@ -5620,7 +5657,7 @@
     <row r="155" spans="1:6" ht="31.2">
       <c r="A155" s="53"/>
       <c r="B155" s="53"/>
-      <c r="C155" s="58"/>
+      <c r="C155" s="61"/>
       <c r="D155" s="53"/>
       <c r="E155" s="42" t="s">
         <v>151</v>
@@ -5630,7 +5667,7 @@
     <row r="156" spans="1:6" ht="13.5" customHeight="1">
       <c r="A156" s="53"/>
       <c r="B156" s="53"/>
-      <c r="C156" s="58"/>
+      <c r="C156" s="61"/>
       <c r="D156" s="53"/>
       <c r="E156" s="42" t="s">
         <v>152</v>
@@ -5640,7 +5677,7 @@
     <row r="157" spans="1:6" ht="13.5" customHeight="1">
       <c r="A157" s="53"/>
       <c r="B157" s="53"/>
-      <c r="C157" s="58"/>
+      <c r="C157" s="61"/>
       <c r="D157" s="53"/>
       <c r="E157" s="42" t="s">
         <v>153</v>
@@ -5650,7 +5687,7 @@
     <row r="158" spans="1:6" ht="93.6">
       <c r="A158" s="53"/>
       <c r="B158" s="53"/>
-      <c r="C158" s="58"/>
+      <c r="C158" s="61"/>
       <c r="D158" s="53" t="s">
         <v>368</v>
       </c>
@@ -5662,7 +5699,7 @@
     <row r="159" spans="1:6" ht="31.2">
       <c r="A159" s="53"/>
       <c r="B159" s="53"/>
-      <c r="C159" s="58"/>
+      <c r="C159" s="61"/>
       <c r="D159" s="53"/>
       <c r="E159" s="42" t="s">
         <v>151</v>
@@ -5672,7 +5709,7 @@
     <row r="160" spans="1:6" ht="13.5" customHeight="1">
       <c r="A160" s="53"/>
       <c r="B160" s="53"/>
-      <c r="C160" s="58"/>
+      <c r="C160" s="61"/>
       <c r="D160" s="53"/>
       <c r="E160" s="42" t="s">
         <v>152</v>
@@ -5682,7 +5719,7 @@
     <row r="161" spans="1:6" ht="13.5" customHeight="1">
       <c r="A161" s="53"/>
       <c r="B161" s="53"/>
-      <c r="C161" s="59"/>
+      <c r="C161" s="60"/>
       <c r="D161" s="53"/>
       <c r="E161" s="42" t="s">
         <v>153</v>
@@ -5848,10 +5885,10 @@
       <c r="F174" s="42"/>
     </row>
     <row r="175" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A175" s="54" t="s">
+      <c r="A175" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="B175" s="54" t="s">
+      <c r="B175" s="56" t="s">
         <v>191</v>
       </c>
       <c r="C175" s="42" t="s">
@@ -5862,8 +5899,8 @@
       <c r="F175" s="42"/>
     </row>
     <row r="176" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A176" s="55"/>
-      <c r="B176" s="55"/>
+      <c r="A176" s="57"/>
+      <c r="B176" s="57"/>
       <c r="C176" s="42" t="s">
         <v>193</v>
       </c>
@@ -5872,8 +5909,8 @@
       <c r="F176" s="42"/>
     </row>
     <row r="177" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A177" s="55"/>
-      <c r="B177" s="56"/>
+      <c r="A177" s="57"/>
+      <c r="B177" s="58"/>
       <c r="C177" s="42" t="s">
         <v>194</v>
       </c>
@@ -5882,8 +5919,8 @@
       <c r="F177" s="42"/>
     </row>
     <row r="178" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A178" s="55"/>
-      <c r="B178" s="54" t="s">
+      <c r="A178" s="57"/>
+      <c r="B178" s="56" t="s">
         <v>195</v>
       </c>
       <c r="C178" s="42" t="s">
@@ -5896,8 +5933,8 @@
       <c r="F178" s="42"/>
     </row>
     <row r="179" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A179" s="55"/>
-      <c r="B179" s="56"/>
+      <c r="A179" s="57"/>
+      <c r="B179" s="58"/>
       <c r="C179" s="42" t="s">
         <v>198</v>
       </c>
@@ -5908,8 +5945,8 @@
       <c r="F179" s="42"/>
     </row>
     <row r="180" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A180" s="55"/>
-      <c r="B180" s="54" t="s">
+      <c r="A180" s="57"/>
+      <c r="B180" s="56" t="s">
         <v>200</v>
       </c>
       <c r="C180" s="42" t="s">
@@ -5922,8 +5959,8 @@
       <c r="F180" s="42"/>
     </row>
     <row r="181" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A181" s="55"/>
-      <c r="B181" s="55"/>
+      <c r="A181" s="57"/>
+      <c r="B181" s="57"/>
       <c r="C181" s="42" t="s">
         <v>193</v>
       </c>
@@ -5932,8 +5969,8 @@
       <c r="F181" s="42"/>
     </row>
     <row r="182" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A182" s="56"/>
-      <c r="B182" s="56"/>
+      <c r="A182" s="58"/>
+      <c r="B182" s="58"/>
       <c r="C182" s="42" t="s">
         <v>194</v>
       </c>
@@ -5976,7 +6013,7 @@
       <c r="F186" s="53"/>
     </row>
     <row r="187" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="56" t="s">
         <v>394</v>
       </c>
       <c r="B187" s="42" t="s">
@@ -6002,7 +6039,7 @@
       <c r="F188" s="42"/>
     </row>
     <row r="189" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A189" s="58"/>
+      <c r="A189" s="61"/>
       <c r="B189" s="53"/>
       <c r="C189" s="42" t="s">
         <v>206</v>
@@ -6014,7 +6051,7 @@
       <c r="F189" s="42"/>
     </row>
     <row r="190" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A190" s="58"/>
+      <c r="A190" s="61"/>
       <c r="B190" s="53"/>
       <c r="C190" s="42" t="s">
         <v>37</v>
@@ -6026,7 +6063,7 @@
       <c r="F190" s="42"/>
     </row>
     <row r="191" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A191" s="58"/>
+      <c r="A191" s="61"/>
       <c r="B191" s="53" t="s">
         <v>208</v>
       </c>
@@ -6040,7 +6077,7 @@
       <c r="F191" s="42"/>
     </row>
     <row r="192" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A192" s="58"/>
+      <c r="A192" s="61"/>
       <c r="B192" s="53"/>
       <c r="C192" s="42" t="s">
         <v>211</v>
@@ -6052,7 +6089,7 @@
       <c r="F192" s="42"/>
     </row>
     <row r="193" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A193" s="58"/>
+      <c r="A193" s="61"/>
       <c r="B193" s="53" t="s">
         <v>212</v>
       </c>
@@ -6066,7 +6103,7 @@
       <c r="F193" s="42"/>
     </row>
     <row r="194" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A194" s="59"/>
+      <c r="A194" s="60"/>
       <c r="B194" s="53"/>
       <c r="C194" s="42" t="s">
         <v>215</v>
@@ -6151,20 +6188,42 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C162:C169"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A127:A174"/>
+    <mergeCell ref="A175:A182"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="A99:A119"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A28:A98"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A183:F186"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="C129:C161"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C105:C113"/>
     <mergeCell ref="A197:A199"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B16:B17"/>
@@ -6181,43 +6240,21 @@
     <mergeCell ref="B191:B192"/>
     <mergeCell ref="B193:B194"/>
     <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C45"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A183:F186"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="C129:C161"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="A99:A119"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A28:A98"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A127:A174"/>
-    <mergeCell ref="A175:A182"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B115"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C162:C169"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -23558,8 +23595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD253"/>
+    <sheetView showGridLines="0" topLeftCell="E199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -23575,15 +23612,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -23609,7 +23646,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>439</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -23624,14 +23661,14 @@
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A4" s="85"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="54" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="38" t="s">
@@ -23643,10 +23680,10 @@
       <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A5" s="85"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="52"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="38" t="s">
         <v>40</v>
       </c>
@@ -23656,10 +23693,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A6" s="85"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="52"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="38" t="s">
         <v>42</v>
       </c>
@@ -23669,10 +23706,10 @@
       <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="52"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="38" t="s">
         <v>44</v>
       </c>
@@ -23682,10 +23719,10 @@
       <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A8" s="85"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="52"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="38" t="s">
         <v>46</v>
       </c>
@@ -23695,10 +23732,10 @@
       <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A9" s="85"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="52"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="38" t="s">
         <v>277</v>
       </c>
@@ -23708,10 +23745,10 @@
       <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A10" s="85"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="52"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="38" t="s">
         <v>47</v>
       </c>
@@ -23719,10 +23756,10 @@
       <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="85"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="52"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="38" t="s">
         <v>48</v>
       </c>
@@ -23732,9 +23769,9 @@
       <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="85"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="52"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="38" t="s">
         <v>49</v>
       </c>
@@ -23745,9 +23782,9 @@
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="85"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="52"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="38" t="s">
         <v>280</v>
       </c>
@@ -23758,9 +23795,9 @@
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="85"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="52"/>
-      <c r="C14" s="63"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="38" t="s">
         <v>51</v>
       </c>
@@ -23771,9 +23808,9 @@
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A15" s="85"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="52"/>
-      <c r="C15" s="63"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="39" t="s">
         <v>52</v>
       </c>
@@ -23784,9 +23821,9 @@
       <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A16" s="85"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="52"/>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="54" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="38" t="s">
@@ -23799,9 +23836,9 @@
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="52"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="38" t="s">
         <v>57</v>
       </c>
@@ -23812,14 +23849,14 @@
       <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="59" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -23831,10 +23868,10 @@
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="40" t="s">
         <v>287</v>
       </c>
@@ -23844,9 +23881,9 @@
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="41" t="s">
         <v>288</v>
       </c>
@@ -23855,8 +23892,8 @@
       <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="40" t="s">
         <v>296</v>
       </c>
@@ -23870,12 +23907,12 @@
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="59" t="s">
         <v>299</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -23887,10 +23924,10 @@
       <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="58"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="40" t="s">
         <v>303</v>
       </c>
@@ -23900,10 +23937,10 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="58"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="40" t="s">
         <v>304</v>
       </c>
@@ -23913,10 +23950,10 @@
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="59"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="40" t="s">
         <v>306</v>
       </c>
@@ -23926,8 +23963,8 @@
       <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="52" t="s">
         <v>291</v>
       </c>
@@ -23941,8 +23978,8 @@
       <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="52"/>
       <c r="D27" s="40" t="s">
         <v>288</v>
@@ -23954,14 +23991,14 @@
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A28" s="85"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="40" t="s">
@@ -23973,10 +24010,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A29" s="85"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="40" t="s">
         <v>293</v>
       </c>
@@ -23986,7 +24023,7 @@
       <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A30" s="85"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52" t="s">
@@ -24001,7 +24038,7 @@
       <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A31" s="85"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -24016,7 +24053,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A32" s="85"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -24029,7 +24066,7 @@
       <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A33" s="85"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52" t="s">
@@ -24044,7 +24081,7 @@
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A34" s="85"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
@@ -24057,7 +24094,7 @@
       <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A35" s="85"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
@@ -24070,7 +24107,7 @@
       <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A36" s="85"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
       <c r="D36" s="40" t="s">
@@ -24083,7 +24120,7 @@
       <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A37" s="85"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
       <c r="D37" s="40" t="s">
@@ -24096,7 +24133,7 @@
       <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A38" s="85"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52" t="s">
@@ -24111,7 +24148,7 @@
       <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A39" s="85"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -24124,7 +24161,7 @@
       <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A40" s="85"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52" t="s">
@@ -24139,7 +24176,7 @@
       <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A41" s="85"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -24152,7 +24189,7 @@
       <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A42" s="85"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -24163,7 +24200,7 @@
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A43" s="85"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -24176,7 +24213,7 @@
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A44" s="85"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
@@ -24189,7 +24226,7 @@
       <c r="G44" s="40"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A45" s="85"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
@@ -24202,7 +24239,7 @@
       <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A46" s="85"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52" t="s">
@@ -24215,7 +24252,7 @@
       <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A47" s="85"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
@@ -24226,7 +24263,7 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A48" s="85"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
@@ -24237,7 +24274,7 @@
       <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A49" s="85"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
       <c r="D49" s="52" t="s">
@@ -24252,7 +24289,7 @@
       <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A50" s="85"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
@@ -24265,7 +24302,7 @@
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A51" s="85"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
       <c r="D51" s="52" t="s">
@@ -24278,7 +24315,7 @@
       <c r="G51" s="40"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A52" s="85"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -24289,7 +24326,7 @@
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A53" s="85"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
@@ -24300,7 +24337,7 @@
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A54" s="85"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
@@ -24313,7 +24350,7 @@
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A55" s="85"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52" t="s">
         <v>108</v>
@@ -24328,7 +24365,7 @@
       <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="85"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
       <c r="D56" s="52" t="s">
@@ -24343,7 +24380,7 @@
       <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A57" s="85"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
@@ -24358,7 +24395,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A58" s="85"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
@@ -24371,7 +24408,7 @@
       <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A59" s="85"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52" t="s">
@@ -24386,7 +24423,7 @@
       <c r="G59" s="40"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A60" s="85"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
@@ -24399,7 +24436,7 @@
       <c r="G60" s="40"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A61" s="85"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
       <c r="D61" s="52"/>
@@ -24412,7 +24449,7 @@
       <c r="G61" s="40"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A62" s="85"/>
+      <c r="A62" s="87"/>
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
       <c r="D62" s="40" t="s">
@@ -24425,7 +24462,7 @@
       <c r="G62" s="40"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A63" s="85"/>
+      <c r="A63" s="87"/>
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
       <c r="D63" s="40" t="s">
@@ -24438,7 +24475,7 @@
       <c r="G63" s="40"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A64" s="85"/>
+      <c r="A64" s="87"/>
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
       <c r="D64" s="52" t="s">
@@ -24453,7 +24490,7 @@
       <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A65" s="85"/>
+      <c r="A65" s="87"/>
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
@@ -24466,7 +24503,7 @@
       <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A66" s="85"/>
+      <c r="A66" s="87"/>
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52" t="s">
@@ -24481,7 +24518,7 @@
       <c r="G66" s="40"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A67" s="85"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
@@ -24494,7 +24531,7 @@
       <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A68" s="85"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -24505,7 +24542,7 @@
       <c r="G68" s="40"/>
     </row>
     <row r="69" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A69" s="85"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
@@ -24518,7 +24555,7 @@
       <c r="G69" s="40"/>
     </row>
     <row r="70" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A70" s="85"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
@@ -24531,7 +24568,7 @@
       <c r="G70" s="40"/>
     </row>
     <row r="71" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A71" s="85"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
@@ -24544,7 +24581,7 @@
       <c r="G71" s="40"/>
     </row>
     <row r="72" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A72" s="85"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52" t="s">
@@ -24557,7 +24594,7 @@
       <c r="G72" s="40"/>
     </row>
     <row r="73" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A73" s="85"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="52"/>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
@@ -24568,7 +24605,7 @@
       <c r="G73" s="40"/>
     </row>
     <row r="74" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A74" s="85"/>
+      <c r="A74" s="87"/>
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
       <c r="D74" s="52"/>
@@ -24579,7 +24616,7 @@
       <c r="G74" s="40"/>
     </row>
     <row r="75" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A75" s="85"/>
+      <c r="A75" s="87"/>
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
       <c r="D75" s="52" t="s">
@@ -24594,7 +24631,7 @@
       <c r="G75" s="40"/>
     </row>
     <row r="76" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A76" s="85"/>
+      <c r="A76" s="87"/>
       <c r="B76" s="52"/>
       <c r="C76" s="52"/>
       <c r="D76" s="52"/>
@@ -24607,7 +24644,7 @@
       <c r="G76" s="40"/>
     </row>
     <row r="77" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A77" s="85"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52" t="s">
         <v>121</v>
@@ -24622,7 +24659,7 @@
       <c r="G77" s="40"/>
     </row>
     <row r="78" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A78" s="85"/>
+      <c r="A78" s="87"/>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
       <c r="D78" s="52" t="s">
@@ -24637,7 +24674,7 @@
       <c r="G78" s="40"/>
     </row>
     <row r="79" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A79" s="85"/>
+      <c r="A79" s="87"/>
       <c r="B79" s="52"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -24652,7 +24689,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A80" s="85"/>
+      <c r="A80" s="87"/>
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -24665,7 +24702,7 @@
       <c r="G80" s="40"/>
     </row>
     <row r="81" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A81" s="85"/>
+      <c r="A81" s="87"/>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
       <c r="D81" s="52" t="s">
@@ -24680,7 +24717,7 @@
       <c r="G81" s="40"/>
     </row>
     <row r="82" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A82" s="85"/>
+      <c r="A82" s="87"/>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -24693,7 +24730,7 @@
       <c r="G82" s="40"/>
     </row>
     <row r="83" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A83" s="85"/>
+      <c r="A83" s="87"/>
       <c r="B83" s="52"/>
       <c r="C83" s="52"/>
       <c r="D83" s="52"/>
@@ -24706,7 +24743,7 @@
       <c r="G83" s="40"/>
     </row>
     <row r="84" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A84" s="85"/>
+      <c r="A84" s="87"/>
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
       <c r="D84" s="40" t="s">
@@ -24719,7 +24756,7 @@
       <c r="G84" s="40"/>
     </row>
     <row r="85" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A85" s="85"/>
+      <c r="A85" s="87"/>
       <c r="B85" s="52"/>
       <c r="C85" s="52"/>
       <c r="D85" s="40" t="s">
@@ -24732,7 +24769,7 @@
       <c r="G85" s="40"/>
     </row>
     <row r="86" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A86" s="85"/>
+      <c r="A86" s="87"/>
       <c r="B86" s="52"/>
       <c r="C86" s="52"/>
       <c r="D86" s="52" t="s">
@@ -24747,7 +24784,7 @@
       <c r="G86" s="40"/>
     </row>
     <row r="87" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A87" s="85"/>
+      <c r="A87" s="87"/>
       <c r="B87" s="52"/>
       <c r="C87" s="52"/>
       <c r="D87" s="52"/>
@@ -24760,7 +24797,7 @@
       <c r="G87" s="40"/>
     </row>
     <row r="88" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A88" s="85"/>
+      <c r="A88" s="87"/>
       <c r="B88" s="52"/>
       <c r="C88" s="52"/>
       <c r="D88" s="52" t="s">
@@ -24775,7 +24812,7 @@
       <c r="G88" s="40"/>
     </row>
     <row r="89" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A89" s="85"/>
+      <c r="A89" s="87"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52"/>
       <c r="D89" s="52"/>
@@ -24788,7 +24825,7 @@
       <c r="G89" s="40"/>
     </row>
     <row r="90" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A90" s="85"/>
+      <c r="A90" s="87"/>
       <c r="B90" s="52"/>
       <c r="C90" s="52"/>
       <c r="D90" s="52"/>
@@ -24799,7 +24836,7 @@
       <c r="G90" s="40"/>
     </row>
     <row r="91" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A91" s="85"/>
+      <c r="A91" s="87"/>
       <c r="B91" s="52"/>
       <c r="C91" s="52"/>
       <c r="D91" s="52"/>
@@ -24812,7 +24849,7 @@
       <c r="G91" s="40"/>
     </row>
     <row r="92" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A92" s="85"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="52"/>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
@@ -24825,7 +24862,7 @@
       <c r="G92" s="40"/>
     </row>
     <row r="93" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A93" s="85"/>
+      <c r="A93" s="87"/>
       <c r="B93" s="52"/>
       <c r="C93" s="52"/>
       <c r="D93" s="52"/>
@@ -24838,7 +24875,7 @@
       <c r="G93" s="40"/>
     </row>
     <row r="94" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A94" s="85"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="52"/>
       <c r="C94" s="52"/>
       <c r="D94" s="52" t="s">
@@ -24851,7 +24888,7 @@
       <c r="G94" s="40"/>
     </row>
     <row r="95" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A95" s="85"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="52"/>
       <c r="C95" s="52"/>
       <c r="D95" s="52"/>
@@ -24862,7 +24899,7 @@
       <c r="G95" s="40"/>
     </row>
     <row r="96" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A96" s="85"/>
+      <c r="A96" s="87"/>
       <c r="B96" s="52"/>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -24873,7 +24910,7 @@
       <c r="G96" s="40"/>
     </row>
     <row r="97" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A97" s="85"/>
+      <c r="A97" s="87"/>
       <c r="B97" s="52"/>
       <c r="C97" s="52"/>
       <c r="D97" s="52" t="s">
@@ -24888,7 +24925,7 @@
       <c r="G97" s="40"/>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A98" s="85"/>
+      <c r="A98" s="87"/>
       <c r="B98" s="52"/>
       <c r="C98" s="52"/>
       <c r="D98" s="52"/>
@@ -24901,11 +24938,11 @@
       <c r="G98" s="40"/>
     </row>
     <row r="99" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A99" s="85"/>
-      <c r="B99" s="57" t="s">
+      <c r="A99" s="87"/>
+      <c r="B99" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="C99" s="59" t="s">
         <v>324</v>
       </c>
       <c r="D99" s="40" t="s">
@@ -24918,9 +24955,9 @@
       <c r="G99" s="40"/>
     </row>
     <row r="100" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A100" s="85"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="59"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="40" t="s">
         <v>326</v>
       </c>
@@ -24931,8 +24968,8 @@
       <c r="G100" s="40"/>
     </row>
     <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="85"/>
-      <c r="B101" s="58"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="61"/>
       <c r="C101" s="53" t="s">
         <v>323</v>
       </c>
@@ -24944,8 +24981,8 @@
       <c r="G101" s="42"/>
     </row>
     <row r="102" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A102" s="85"/>
-      <c r="B102" s="58"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="53"/>
       <c r="D102" s="42" t="s">
         <v>171</v>
@@ -24955,8 +24992,8 @@
       <c r="G102" s="42"/>
     </row>
     <row r="103" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A103" s="85"/>
-      <c r="B103" s="58"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="61"/>
       <c r="C103" s="53" t="s">
         <v>172</v>
       </c>
@@ -24968,8 +25005,8 @@
       <c r="G103" s="42"/>
     </row>
     <row r="104" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A104" s="85"/>
-      <c r="B104" s="58"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="61"/>
       <c r="C104" s="53"/>
       <c r="D104" s="42" t="s">
         <v>328</v>
@@ -24981,8 +25018,8 @@
       <c r="G104" s="42"/>
     </row>
     <row r="105" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A105" s="85"/>
-      <c r="B105" s="58"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="53"/>
       <c r="D105" s="53" t="s">
         <v>173</v>
@@ -24996,8 +25033,8 @@
       <c r="G105" s="42"/>
     </row>
     <row r="106" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A106" s="85"/>
-      <c r="B106" s="58"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="53"/>
       <c r="D106" s="53"/>
       <c r="E106" s="42" t="s">
@@ -25009,8 +25046,8 @@
       <c r="G106" s="42"/>
     </row>
     <row r="107" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A107" s="85"/>
-      <c r="B107" s="58"/>
+      <c r="A107" s="87"/>
+      <c r="B107" s="61"/>
       <c r="C107" s="53"/>
       <c r="D107" s="53"/>
       <c r="E107" s="42" t="s">
@@ -25022,8 +25059,8 @@
       <c r="G107" s="42"/>
     </row>
     <row r="108" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A108" s="85"/>
-      <c r="B108" s="58"/>
+      <c r="A108" s="87"/>
+      <c r="B108" s="61"/>
       <c r="C108" s="53"/>
       <c r="D108" s="53"/>
       <c r="E108" s="42" t="s">
@@ -25035,8 +25072,8 @@
       <c r="G108" s="42"/>
     </row>
     <row r="109" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A109" s="85"/>
-      <c r="B109" s="58"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="61"/>
       <c r="C109" s="53"/>
       <c r="D109" s="53"/>
       <c r="E109" s="42" t="s">
@@ -25048,8 +25085,8 @@
       <c r="G109" s="42"/>
     </row>
     <row r="110" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A110" s="85"/>
-      <c r="B110" s="58"/>
+      <c r="A110" s="87"/>
+      <c r="B110" s="61"/>
       <c r="C110" s="53"/>
       <c r="D110" s="53"/>
       <c r="E110" s="42" t="s">
@@ -25061,8 +25098,8 @@
       <c r="G110" s="42"/>
     </row>
     <row r="111" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A111" s="85"/>
-      <c r="B111" s="58"/>
+      <c r="A111" s="87"/>
+      <c r="B111" s="61"/>
       <c r="C111" s="53"/>
       <c r="D111" s="53"/>
       <c r="E111" s="42" t="s">
@@ -25074,8 +25111,8 @@
       <c r="G111" s="42"/>
     </row>
     <row r="112" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A112" s="85"/>
-      <c r="B112" s="58"/>
+      <c r="A112" s="87"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="53"/>
       <c r="D112" s="53"/>
       <c r="E112" s="42" t="s">
@@ -25085,8 +25122,8 @@
       <c r="G112" s="42"/>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A113" s="85"/>
-      <c r="B113" s="58"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="61"/>
       <c r="C113" s="53"/>
       <c r="D113" s="53"/>
       <c r="E113" s="42" t="s">
@@ -25098,8 +25135,8 @@
       <c r="G113" s="42"/>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A114" s="85"/>
-      <c r="B114" s="58"/>
+      <c r="A114" s="87"/>
+      <c r="B114" s="61"/>
       <c r="C114" s="53"/>
       <c r="D114" s="42" t="s">
         <v>181</v>
@@ -25111,8 +25148,8 @@
       <c r="G114" s="42"/>
     </row>
     <row r="115" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A115" s="85"/>
-      <c r="B115" s="58"/>
+      <c r="A115" s="87"/>
+      <c r="B115" s="61"/>
       <c r="C115" s="53"/>
       <c r="D115" s="42" t="s">
         <v>183</v>
@@ -25124,8 +25161,8 @@
       <c r="G115" s="42"/>
     </row>
     <row r="116" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A116" s="85"/>
-      <c r="B116" s="58"/>
+      <c r="A116" s="87"/>
+      <c r="B116" s="61"/>
       <c r="C116" s="53" t="s">
         <v>185</v>
       </c>
@@ -25139,8 +25176,8 @@
       <c r="G116" s="42"/>
     </row>
     <row r="117" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A117" s="85"/>
-      <c r="B117" s="58"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="61"/>
       <c r="C117" s="53"/>
       <c r="D117" s="42" t="s">
         <v>187</v>
@@ -25150,8 +25187,8 @@
       <c r="G117" s="42"/>
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A118" s="85"/>
-      <c r="B118" s="58"/>
+      <c r="A118" s="87"/>
+      <c r="B118" s="61"/>
       <c r="C118" s="53"/>
       <c r="D118" s="42" t="s">
         <v>188</v>
@@ -25161,8 +25198,8 @@
       <c r="G118" s="42"/>
     </row>
     <row r="119" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A119" s="85"/>
-      <c r="B119" s="59"/>
+      <c r="A119" s="87"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="53"/>
       <c r="D119" s="42" t="s">
         <v>189</v>
@@ -25174,7 +25211,7 @@
       <c r="G119" s="42"/>
     </row>
     <row r="120" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A120" s="85"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="52" t="s">
         <v>321</v>
       </c>
@@ -25191,7 +25228,7 @@
       <c r="G120" s="40"/>
     </row>
     <row r="121" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A121" s="85"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="52"/>
       <c r="C121" s="52"/>
       <c r="D121" s="40" t="s">
@@ -25206,7 +25243,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A122" s="85"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="52"/>
       <c r="C122" s="52"/>
       <c r="D122" s="40" t="s">
@@ -25221,7 +25258,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A123" s="85"/>
+      <c r="A123" s="87"/>
       <c r="B123" s="52"/>
       <c r="C123" s="52"/>
       <c r="D123" s="40" t="s">
@@ -25234,7 +25271,7 @@
       <c r="G123" s="40"/>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A124" s="85"/>
+      <c r="A124" s="87"/>
       <c r="B124" s="52"/>
       <c r="C124" s="40" t="s">
         <v>138</v>
@@ -25247,7 +25284,7 @@
       <c r="G124" s="40"/>
     </row>
     <row r="125" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A125" s="85"/>
+      <c r="A125" s="87"/>
       <c r="B125" s="52"/>
       <c r="C125" s="40" t="s">
         <v>140</v>
@@ -25258,7 +25295,7 @@
       <c r="G125" s="40"/>
     </row>
     <row r="126" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A126" s="85"/>
+      <c r="A126" s="87"/>
       <c r="B126" s="40" t="s">
         <v>141</v>
       </c>
@@ -25273,7 +25310,7 @@
       <c r="G126" s="40"/>
     </row>
     <row r="127" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A127" s="85"/>
+      <c r="A127" s="87"/>
       <c r="B127" s="53" t="s">
         <v>144</v>
       </c>
@@ -25290,7 +25327,7 @@
       <c r="G127" s="42"/>
     </row>
     <row r="128" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A128" s="85"/>
+      <c r="A128" s="87"/>
       <c r="B128" s="53"/>
       <c r="C128" s="53"/>
       <c r="D128" s="42" t="s">
@@ -25303,10 +25340,10 @@
       <c r="G128" s="42"/>
     </row>
     <row r="129" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A129" s="85"/>
+      <c r="A129" s="87"/>
       <c r="B129" s="53"/>
       <c r="C129" s="53"/>
-      <c r="D129" s="54" t="s">
+      <c r="D129" s="56" t="s">
         <v>344</v>
       </c>
       <c r="E129" s="42" t="s">
@@ -25318,10 +25355,10 @@
       <c r="G129" s="42"/>
     </row>
     <row r="130" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A130" s="85"/>
+      <c r="A130" s="87"/>
       <c r="B130" s="53"/>
       <c r="C130" s="53"/>
-      <c r="D130" s="55"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="42" t="s">
         <v>353</v>
       </c>
@@ -25331,10 +25368,10 @@
       <c r="G130" s="42"/>
     </row>
     <row r="131" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A131" s="85"/>
+      <c r="A131" s="87"/>
       <c r="B131" s="53"/>
       <c r="C131" s="53"/>
-      <c r="D131" s="55"/>
+      <c r="D131" s="57"/>
       <c r="E131" s="42" t="s">
         <v>355</v>
       </c>
@@ -25344,10 +25381,10 @@
       <c r="G131" s="42"/>
     </row>
     <row r="132" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A132" s="85"/>
+      <c r="A132" s="87"/>
       <c r="B132" s="53"/>
       <c r="C132" s="53"/>
-      <c r="D132" s="55"/>
+      <c r="D132" s="57"/>
       <c r="E132" s="42" t="s">
         <v>357</v>
       </c>
@@ -25357,10 +25394,10 @@
       <c r="G132" s="42"/>
     </row>
     <row r="133" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A133" s="85"/>
+      <c r="A133" s="87"/>
       <c r="B133" s="53"/>
       <c r="C133" s="53"/>
-      <c r="D133" s="58"/>
+      <c r="D133" s="61"/>
       <c r="E133" s="42" t="s">
         <v>50</v>
       </c>
@@ -25370,10 +25407,10 @@
       <c r="G133" s="42"/>
     </row>
     <row r="134" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A134" s="85"/>
+      <c r="A134" s="87"/>
       <c r="B134" s="53"/>
       <c r="C134" s="53"/>
-      <c r="D134" s="58"/>
+      <c r="D134" s="61"/>
       <c r="E134" s="42" t="s">
         <v>51</v>
       </c>
@@ -25383,10 +25420,10 @@
       <c r="G134" s="42"/>
     </row>
     <row r="135" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A135" s="85"/>
+      <c r="A135" s="87"/>
       <c r="B135" s="53"/>
       <c r="C135" s="53"/>
-      <c r="D135" s="58"/>
+      <c r="D135" s="61"/>
       <c r="E135" s="53" t="s">
         <v>365</v>
       </c>
@@ -25396,10 +25433,10 @@
       <c r="G135" s="42"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A136" s="85"/>
+      <c r="A136" s="87"/>
       <c r="B136" s="53"/>
       <c r="C136" s="53"/>
-      <c r="D136" s="58"/>
+      <c r="D136" s="61"/>
       <c r="E136" s="53"/>
       <c r="F136" s="42" t="s">
         <v>346</v>
@@ -25407,10 +25444,10 @@
       <c r="G136" s="42"/>
     </row>
     <row r="137" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A137" s="85"/>
+      <c r="A137" s="87"/>
       <c r="B137" s="53"/>
       <c r="C137" s="53"/>
-      <c r="D137" s="58"/>
+      <c r="D137" s="61"/>
       <c r="E137" s="53"/>
       <c r="F137" s="42" t="s">
         <v>150</v>
@@ -25418,10 +25455,10 @@
       <c r="G137" s="42"/>
     </row>
     <row r="138" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A138" s="85"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="53"/>
       <c r="C138" s="53"/>
-      <c r="D138" s="58"/>
+      <c r="D138" s="61"/>
       <c r="E138" s="43" t="s">
         <v>364</v>
       </c>
@@ -25431,10 +25468,10 @@
       <c r="G138" s="42"/>
     </row>
     <row r="139" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A139" s="85"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="53"/>
       <c r="C139" s="53"/>
-      <c r="D139" s="58"/>
+      <c r="D139" s="61"/>
       <c r="E139" s="53" t="s">
         <v>369</v>
       </c>
@@ -25444,10 +25481,10 @@
       <c r="G139" s="42"/>
     </row>
     <row r="140" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A140" s="85"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="53"/>
       <c r="C140" s="53"/>
-      <c r="D140" s="58"/>
+      <c r="D140" s="61"/>
       <c r="E140" s="53"/>
       <c r="F140" s="42" t="s">
         <v>348</v>
@@ -25455,10 +25492,10 @@
       <c r="G140" s="42"/>
     </row>
     <row r="141" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A141" s="85"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="53"/>
       <c r="C141" s="53"/>
-      <c r="D141" s="58"/>
+      <c r="D141" s="61"/>
       <c r="E141" s="53"/>
       <c r="F141" s="42" t="s">
         <v>349</v>
@@ -25466,10 +25503,10 @@
       <c r="G141" s="42"/>
     </row>
     <row r="142" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A142" s="85"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="53"/>
       <c r="C142" s="53"/>
-      <c r="D142" s="58"/>
+      <c r="D142" s="61"/>
       <c r="E142" s="53"/>
       <c r="F142" s="42" t="s">
         <v>350</v>
@@ -25477,10 +25514,10 @@
       <c r="G142" s="42"/>
     </row>
     <row r="143" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A143" s="85"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="53"/>
       <c r="C143" s="53"/>
-      <c r="D143" s="58"/>
+      <c r="D143" s="61"/>
       <c r="E143" s="53"/>
       <c r="F143" s="42" t="s">
         <v>351</v>
@@ -25488,10 +25525,10 @@
       <c r="G143" s="42"/>
     </row>
     <row r="144" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A144" s="85"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="53"/>
       <c r="C144" s="53"/>
-      <c r="D144" s="58"/>
+      <c r="D144" s="61"/>
       <c r="E144" s="53" t="s">
         <v>370</v>
       </c>
@@ -25501,10 +25538,10 @@
       <c r="G144" s="42"/>
     </row>
     <row r="145" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A145" s="85"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="53"/>
       <c r="C145" s="53"/>
-      <c r="D145" s="58"/>
+      <c r="D145" s="61"/>
       <c r="E145" s="53"/>
       <c r="F145" s="42" t="s">
         <v>348</v>
@@ -25512,10 +25549,10 @@
       <c r="G145" s="42"/>
     </row>
     <row r="146" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A146" s="85"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="53"/>
       <c r="C146" s="53"/>
-      <c r="D146" s="58"/>
+      <c r="D146" s="61"/>
       <c r="E146" s="53"/>
       <c r="F146" s="42" t="s">
         <v>349</v>
@@ -25523,10 +25560,10 @@
       <c r="G146" s="42"/>
     </row>
     <row r="147" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A147" s="85"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="53"/>
       <c r="C147" s="53"/>
-      <c r="D147" s="58"/>
+      <c r="D147" s="61"/>
       <c r="E147" s="53"/>
       <c r="F147" s="42" t="s">
         <v>350</v>
@@ -25534,10 +25571,10 @@
       <c r="G147" s="42"/>
     </row>
     <row r="148" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A148" s="85"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="53"/>
       <c r="C148" s="53"/>
-      <c r="D148" s="58"/>
+      <c r="D148" s="61"/>
       <c r="E148" s="53"/>
       <c r="F148" s="42" t="s">
         <v>351</v>
@@ -25545,10 +25582,10 @@
       <c r="G148" s="42"/>
     </row>
     <row r="149" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A149" s="85"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="53"/>
       <c r="C149" s="53"/>
-      <c r="D149" s="58"/>
+      <c r="D149" s="61"/>
       <c r="E149" s="53" t="s">
         <v>371</v>
       </c>
@@ -25558,10 +25595,10 @@
       <c r="G149" s="42"/>
     </row>
     <row r="150" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A150" s="85"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="53"/>
       <c r="C150" s="53"/>
-      <c r="D150" s="58"/>
+      <c r="D150" s="61"/>
       <c r="E150" s="53"/>
       <c r="F150" s="42" t="s">
         <v>346</v>
@@ -25569,10 +25606,10 @@
       <c r="G150" s="42"/>
     </row>
     <row r="151" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A151" s="85"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="53"/>
       <c r="C151" s="53"/>
-      <c r="D151" s="58"/>
+      <c r="D151" s="61"/>
       <c r="E151" s="53"/>
       <c r="F151" s="42" t="s">
         <v>150</v>
@@ -25580,10 +25617,10 @@
       <c r="G151" s="42"/>
     </row>
     <row r="152" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A152" s="85"/>
+      <c r="A152" s="87"/>
       <c r="B152" s="53"/>
       <c r="C152" s="53"/>
-      <c r="D152" s="58"/>
+      <c r="D152" s="61"/>
       <c r="E152" s="43" t="s">
         <v>372</v>
       </c>
@@ -25593,10 +25630,10 @@
       <c r="G152" s="42"/>
     </row>
     <row r="153" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A153" s="85"/>
+      <c r="A153" s="87"/>
       <c r="B153" s="53"/>
       <c r="C153" s="53"/>
-      <c r="D153" s="58"/>
+      <c r="D153" s="61"/>
       <c r="E153" s="53" t="s">
         <v>367</v>
       </c>
@@ -25606,10 +25643,10 @@
       <c r="G153" s="42"/>
     </row>
     <row r="154" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A154" s="85"/>
+      <c r="A154" s="87"/>
       <c r="B154" s="53"/>
       <c r="C154" s="53"/>
-      <c r="D154" s="58"/>
+      <c r="D154" s="61"/>
       <c r="E154" s="53"/>
       <c r="F154" s="42" t="s">
         <v>348</v>
@@ -25617,10 +25654,10 @@
       <c r="G154" s="42"/>
     </row>
     <row r="155" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A155" s="85"/>
+      <c r="A155" s="87"/>
       <c r="B155" s="53"/>
       <c r="C155" s="53"/>
-      <c r="D155" s="58"/>
+      <c r="D155" s="61"/>
       <c r="E155" s="53"/>
       <c r="F155" s="42" t="s">
         <v>151</v>
@@ -25628,10 +25665,10 @@
       <c r="G155" s="42"/>
     </row>
     <row r="156" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A156" s="85"/>
+      <c r="A156" s="87"/>
       <c r="B156" s="53"/>
       <c r="C156" s="53"/>
-      <c r="D156" s="58"/>
+      <c r="D156" s="61"/>
       <c r="E156" s="53"/>
       <c r="F156" s="42" t="s">
         <v>152</v>
@@ -25639,10 +25676,10 @@
       <c r="G156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A157" s="85"/>
+      <c r="A157" s="87"/>
       <c r="B157" s="53"/>
       <c r="C157" s="53"/>
-      <c r="D157" s="58"/>
+      <c r="D157" s="61"/>
       <c r="E157" s="53"/>
       <c r="F157" s="42" t="s">
         <v>153</v>
@@ -25650,10 +25687,10 @@
       <c r="G157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A158" s="85"/>
+      <c r="A158" s="87"/>
       <c r="B158" s="53"/>
       <c r="C158" s="53"/>
-      <c r="D158" s="58"/>
+      <c r="D158" s="61"/>
       <c r="E158" s="53" t="s">
         <v>368</v>
       </c>
@@ -25663,10 +25700,10 @@
       <c r="G158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A159" s="85"/>
+      <c r="A159" s="87"/>
       <c r="B159" s="53"/>
       <c r="C159" s="53"/>
-      <c r="D159" s="58"/>
+      <c r="D159" s="61"/>
       <c r="E159" s="53"/>
       <c r="F159" s="42" t="s">
         <v>151</v>
@@ -25674,10 +25711,10 @@
       <c r="G159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A160" s="85"/>
+      <c r="A160" s="87"/>
       <c r="B160" s="53"/>
       <c r="C160" s="53"/>
-      <c r="D160" s="58"/>
+      <c r="D160" s="61"/>
       <c r="E160" s="53"/>
       <c r="F160" s="42" t="s">
         <v>152</v>
@@ -25685,10 +25722,10 @@
       <c r="G160" s="42"/>
     </row>
     <row r="161" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A161" s="85"/>
+      <c r="A161" s="87"/>
       <c r="B161" s="53"/>
       <c r="C161" s="53"/>
-      <c r="D161" s="59"/>
+      <c r="D161" s="60"/>
       <c r="E161" s="53"/>
       <c r="F161" s="42" t="s">
         <v>153</v>
@@ -25696,7 +25733,7 @@
       <c r="G161" s="42"/>
     </row>
     <row r="162" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A162" s="85"/>
+      <c r="A162" s="87"/>
       <c r="B162" s="53"/>
       <c r="C162" s="53"/>
       <c r="D162" s="53" t="s">
@@ -25709,7 +25746,7 @@
       <c r="G162" s="42"/>
     </row>
     <row r="163" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A163" s="85"/>
+      <c r="A163" s="87"/>
       <c r="B163" s="53"/>
       <c r="C163" s="53"/>
       <c r="D163" s="53"/>
@@ -25720,7 +25757,7 @@
       <c r="G163" s="42"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A164" s="85"/>
+      <c r="A164" s="87"/>
       <c r="B164" s="53"/>
       <c r="C164" s="53"/>
       <c r="D164" s="53"/>
@@ -25733,7 +25770,7 @@
       <c r="G164" s="42"/>
     </row>
     <row r="165" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A165" s="85"/>
+      <c r="A165" s="87"/>
       <c r="B165" s="53"/>
       <c r="C165" s="53"/>
       <c r="D165" s="53"/>
@@ -25746,7 +25783,7 @@
       <c r="G165" s="42"/>
     </row>
     <row r="166" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A166" s="85"/>
+      <c r="A166" s="87"/>
       <c r="B166" s="53"/>
       <c r="C166" s="53"/>
       <c r="D166" s="53"/>
@@ -25759,7 +25796,7 @@
       <c r="G166" s="42"/>
     </row>
     <row r="167" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A167" s="85"/>
+      <c r="A167" s="87"/>
       <c r="B167" s="53"/>
       <c r="C167" s="53"/>
       <c r="D167" s="53"/>
@@ -25772,7 +25809,7 @@
       <c r="G167" s="42"/>
     </row>
     <row r="168" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A168" s="85"/>
+      <c r="A168" s="87"/>
       <c r="B168" s="53"/>
       <c r="C168" s="53"/>
       <c r="D168" s="53"/>
@@ -25785,7 +25822,7 @@
       <c r="G168" s="42"/>
     </row>
     <row r="169" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A169" s="85"/>
+      <c r="A169" s="87"/>
       <c r="B169" s="53"/>
       <c r="C169" s="53"/>
       <c r="D169" s="53"/>
@@ -25798,7 +25835,7 @@
       <c r="G169" s="42"/>
     </row>
     <row r="170" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A170" s="85"/>
+      <c r="A170" s="87"/>
       <c r="B170" s="53"/>
       <c r="C170" s="53"/>
       <c r="D170" s="42" t="s">
@@ -25811,7 +25848,7 @@
       <c r="G170" s="42"/>
     </row>
     <row r="171" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A171" s="85"/>
+      <c r="A171" s="87"/>
       <c r="B171" s="53"/>
       <c r="C171" s="53" t="s">
         <v>164</v>
@@ -25826,7 +25863,7 @@
       <c r="G171" s="42"/>
     </row>
     <row r="172" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A172" s="85"/>
+      <c r="A172" s="87"/>
       <c r="B172" s="53"/>
       <c r="C172" s="53"/>
       <c r="D172" s="42" t="s">
@@ -25839,7 +25876,7 @@
       <c r="G172" s="42"/>
     </row>
     <row r="173" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A173" s="85"/>
+      <c r="A173" s="87"/>
       <c r="B173" s="53"/>
       <c r="C173" s="53"/>
       <c r="D173" s="43" t="s">
@@ -25854,7 +25891,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A174" s="85"/>
+      <c r="A174" s="87"/>
       <c r="B174" s="53"/>
       <c r="C174" s="53"/>
       <c r="D174" s="42" t="s">
@@ -25867,11 +25904,11 @@
       <c r="G174" s="42"/>
     </row>
     <row r="175" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A175" s="85"/>
-      <c r="B175" s="54" t="s">
+      <c r="A175" s="87"/>
+      <c r="B175" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C175" s="54" t="s">
+      <c r="C175" s="56" t="s">
         <v>191</v>
       </c>
       <c r="D175" s="42" t="s">
@@ -25882,9 +25919,9 @@
       <c r="G175" s="42"/>
     </row>
     <row r="176" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A176" s="85"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="55"/>
+      <c r="A176" s="87"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
       <c r="D176" s="42" t="s">
         <v>193</v>
       </c>
@@ -25893,9 +25930,9 @@
       <c r="G176" s="42"/>
     </row>
     <row r="177" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A177" s="85"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="56"/>
+      <c r="A177" s="87"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
       <c r="D177" s="42" t="s">
         <v>194</v>
       </c>
@@ -25904,9 +25941,9 @@
       <c r="G177" s="42"/>
     </row>
     <row r="178" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A178" s="85"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="54" t="s">
+      <c r="A178" s="87"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="56" t="s">
         <v>195</v>
       </c>
       <c r="D178" s="42" t="s">
@@ -25919,9 +25956,9 @@
       <c r="G178" s="42"/>
     </row>
     <row r="179" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A179" s="85"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="56"/>
+      <c r="A179" s="87"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="42" t="s">
         <v>198</v>
       </c>
@@ -25932,9 +25969,9 @@
       <c r="G179" s="42"/>
     </row>
     <row r="180" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A180" s="85"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="54" t="s">
+      <c r="A180" s="87"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D180" s="42" t="s">
@@ -25947,9 +25984,9 @@
       <c r="G180" s="42"/>
     </row>
     <row r="181" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A181" s="85"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
+      <c r="A181" s="87"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
       <c r="D181" s="42" t="s">
         <v>193</v>
       </c>
@@ -25958,9 +25995,9 @@
       <c r="G181" s="42"/>
     </row>
     <row r="182" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A182" s="85"/>
-      <c r="B182" s="56"/>
-      <c r="C182" s="56"/>
+      <c r="A182" s="87"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="58"/>
       <c r="D182" s="42" t="s">
         <v>194</v>
       </c>
@@ -25969,8 +26006,8 @@
       <c r="G182" s="42"/>
     </row>
     <row r="183" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A183" s="85"/>
-      <c r="B183" s="54" t="s">
+      <c r="A183" s="87"/>
+      <c r="B183" s="56" t="s">
         <v>394</v>
       </c>
       <c r="C183" s="42" t="s">
@@ -25982,7 +26019,7 @@
       <c r="G183" s="42"/>
     </row>
     <row r="184" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A184" s="85"/>
+      <c r="A184" s="87"/>
       <c r="B184" s="62"/>
       <c r="C184" s="53" t="s">
         <v>203</v>
@@ -25997,8 +26034,8 @@
       <c r="G184" s="42"/>
     </row>
     <row r="185" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A185" s="85"/>
-      <c r="B185" s="58"/>
+      <c r="A185" s="87"/>
+      <c r="B185" s="61"/>
       <c r="C185" s="53"/>
       <c r="D185" s="42" t="s">
         <v>206</v>
@@ -26010,8 +26047,8 @@
       <c r="G185" s="42"/>
     </row>
     <row r="186" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A186" s="85"/>
-      <c r="B186" s="58"/>
+      <c r="A186" s="87"/>
+      <c r="B186" s="61"/>
       <c r="C186" s="53"/>
       <c r="D186" s="42" t="s">
         <v>37</v>
@@ -26023,8 +26060,8 @@
       <c r="G186" s="42"/>
     </row>
     <row r="187" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A187" s="85"/>
-      <c r="B187" s="58"/>
+      <c r="A187" s="87"/>
+      <c r="B187" s="61"/>
       <c r="C187" s="53" t="s">
         <v>208</v>
       </c>
@@ -26038,8 +26075,8 @@
       <c r="G187" s="42"/>
     </row>
     <row r="188" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A188" s="85"/>
-      <c r="B188" s="58"/>
+      <c r="A188" s="87"/>
+      <c r="B188" s="61"/>
       <c r="C188" s="53"/>
       <c r="D188" s="42" t="s">
         <v>211</v>
@@ -26051,8 +26088,8 @@
       <c r="G188" s="42"/>
     </row>
     <row r="189" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A189" s="85"/>
-      <c r="B189" s="58"/>
+      <c r="A189" s="87"/>
+      <c r="B189" s="61"/>
       <c r="C189" s="53" t="s">
         <v>212</v>
       </c>
@@ -26066,8 +26103,8 @@
       <c r="G189" s="42"/>
     </row>
     <row r="190" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A190" s="85"/>
-      <c r="B190" s="59"/>
+      <c r="A190" s="87"/>
+      <c r="B190" s="60"/>
       <c r="C190" s="53"/>
       <c r="D190" s="42" t="s">
         <v>215</v>
@@ -26079,7 +26116,7 @@
       <c r="G190" s="42"/>
     </row>
     <row r="191" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A191" s="85"/>
+      <c r="A191" s="87"/>
       <c r="B191" s="53" t="s">
         <v>59</v>
       </c>
@@ -26098,7 +26135,7 @@
       <c r="G191" s="42"/>
     </row>
     <row r="192" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A192" s="85"/>
+      <c r="A192" s="87"/>
       <c r="B192" s="53"/>
       <c r="C192" s="53"/>
       <c r="D192" s="42"/>
@@ -26111,7 +26148,7 @@
       <c r="G192" s="42"/>
     </row>
     <row r="193" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A193" s="85"/>
+      <c r="A193" s="87"/>
       <c r="B193" s="53" t="s">
         <v>220</v>
       </c>
@@ -26130,7 +26167,7 @@
       </c>
     </row>
     <row r="194" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A194" s="85"/>
+      <c r="A194" s="87"/>
       <c r="B194" s="53"/>
       <c r="C194" s="53"/>
       <c r="D194" s="42" t="s">
@@ -26143,7 +26180,7 @@
       <c r="G194" s="42"/>
     </row>
     <row r="195" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A195" s="86"/>
+      <c r="A195" s="88"/>
       <c r="B195" s="53"/>
       <c r="C195" s="53"/>
       <c r="D195" s="42" t="s">
@@ -26156,7 +26193,7 @@
       <c r="G195" s="42"/>
     </row>
     <row r="196" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A196" s="84" t="s">
+      <c r="A196" s="86" t="s">
         <v>440</v>
       </c>
       <c r="B196" s="66" t="s">
@@ -26175,7 +26212,7 @@
       <c r="G196" s="31"/>
     </row>
     <row r="197" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A197" s="85"/>
+      <c r="A197" s="87"/>
       <c r="B197" s="67"/>
       <c r="C197" s="69"/>
       <c r="D197" s="31" t="s">
@@ -26188,7 +26225,7 @@
       <c r="G197" s="31"/>
     </row>
     <row r="198" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A198" s="85"/>
+      <c r="A198" s="87"/>
       <c r="B198" s="67"/>
       <c r="C198" s="69"/>
       <c r="D198" s="31" t="s">
@@ -26201,7 +26238,7 @@
       <c r="G198" s="31"/>
     </row>
     <row r="199" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A199" s="85"/>
+      <c r="A199" s="87"/>
       <c r="B199" s="67"/>
       <c r="C199" s="69"/>
       <c r="D199" s="31" t="s">
@@ -26214,7 +26251,7 @@
       <c r="G199" s="31"/>
     </row>
     <row r="200" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A200" s="85"/>
+      <c r="A200" s="87"/>
       <c r="B200" s="67"/>
       <c r="C200" s="69"/>
       <c r="D200" s="66" t="s">
@@ -26229,7 +26266,7 @@
       <c r="G200" s="31"/>
     </row>
     <row r="201" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A201" s="85"/>
+      <c r="A201" s="87"/>
       <c r="B201" s="67"/>
       <c r="C201" s="69"/>
       <c r="D201" s="70"/>
@@ -26242,7 +26279,7 @@
       <c r="G201" s="31"/>
     </row>
     <row r="202" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A202" s="85"/>
+      <c r="A202" s="87"/>
       <c r="B202" s="67"/>
       <c r="C202" s="69"/>
       <c r="D202" s="70"/>
@@ -26255,7 +26292,7 @@
       <c r="G202" s="31"/>
     </row>
     <row r="203" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A203" s="85"/>
+      <c r="A203" s="87"/>
       <c r="B203" s="67"/>
       <c r="C203" s="69"/>
       <c r="D203" s="71"/>
@@ -26268,7 +26305,7 @@
       <c r="G203" s="31"/>
     </row>
     <row r="204" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A204" s="85"/>
+      <c r="A204" s="87"/>
       <c r="B204" s="67"/>
       <c r="C204" s="69"/>
       <c r="D204" s="31" t="s">
@@ -26281,7 +26318,7 @@
       <c r="G204" s="31"/>
     </row>
     <row r="205" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A205" s="85"/>
+      <c r="A205" s="87"/>
       <c r="B205" s="67"/>
       <c r="C205" s="69"/>
       <c r="D205" s="31" t="s">
@@ -26294,7 +26331,7 @@
       <c r="G205" s="31"/>
     </row>
     <row r="206" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A206" s="86"/>
+      <c r="A206" s="88"/>
       <c r="B206" s="68"/>
       <c r="C206" s="69"/>
       <c r="D206" s="31" t="s">
@@ -26307,7 +26344,7 @@
       <c r="G206" s="31"/>
     </row>
     <row r="207" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A207" s="84" t="s">
+      <c r="A207" s="86" t="s">
         <v>445</v>
       </c>
       <c r="B207" s="7" t="s">
@@ -26326,7 +26363,7 @@
       <c r="IV207"/>
     </row>
     <row r="208" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A208" s="85"/>
+      <c r="A208" s="87"/>
       <c r="B208" s="30" t="s">
         <v>33</v>
       </c>
@@ -26341,7 +26378,7 @@
       <c r="IV208"/>
     </row>
     <row r="209" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A209" s="85"/>
+      <c r="A209" s="87"/>
       <c r="B209" s="76" t="s">
         <v>35</v>
       </c>
@@ -26358,7 +26395,7 @@
       <c r="IV209"/>
     </row>
     <row r="210" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A210" s="85"/>
+      <c r="A210" s="87"/>
       <c r="B210" s="76"/>
       <c r="C210" s="30" t="s">
         <v>231</v>
@@ -26373,7 +26410,7 @@
       <c r="IV210"/>
     </row>
     <row r="211" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A211" s="85"/>
+      <c r="A211" s="87"/>
       <c r="B211" s="76" t="s">
         <v>405</v>
       </c>
@@ -26392,7 +26429,7 @@
       <c r="IV211"/>
     </row>
     <row r="212" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A212" s="85"/>
+      <c r="A212" s="87"/>
       <c r="B212" s="76"/>
       <c r="C212" s="76"/>
       <c r="D212" s="77"/>
@@ -26407,7 +26444,7 @@
       <c r="IV212"/>
     </row>
     <row r="213" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A213" s="85"/>
+      <c r="A213" s="87"/>
       <c r="B213" s="76"/>
       <c r="C213" s="76"/>
       <c r="D213" s="77"/>
@@ -26422,7 +26459,7 @@
       <c r="IV213"/>
     </row>
     <row r="214" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A214" s="85"/>
+      <c r="A214" s="87"/>
       <c r="B214" s="76"/>
       <c r="C214" s="76"/>
       <c r="D214" s="73"/>
@@ -26437,7 +26474,7 @@
       <c r="IV214"/>
     </row>
     <row r="215" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A215" s="85"/>
+      <c r="A215" s="87"/>
       <c r="B215" s="76"/>
       <c r="C215" s="76"/>
       <c r="D215" s="72" t="s">
@@ -26454,7 +26491,7 @@
       <c r="IV215"/>
     </row>
     <row r="216" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A216" s="85"/>
+      <c r="A216" s="87"/>
       <c r="B216" s="76"/>
       <c r="C216" s="76"/>
       <c r="D216" s="77"/>
@@ -26469,7 +26506,7 @@
       <c r="IV216"/>
     </row>
     <row r="217" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A217" s="85"/>
+      <c r="A217" s="87"/>
       <c r="B217" s="76"/>
       <c r="C217" s="76"/>
       <c r="D217" s="77"/>
@@ -26484,7 +26521,7 @@
       <c r="IV217"/>
     </row>
     <row r="218" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A218" s="85"/>
+      <c r="A218" s="87"/>
       <c r="B218" s="76"/>
       <c r="C218" s="76"/>
       <c r="D218" s="73"/>
@@ -26499,7 +26536,7 @@
       <c r="IV218"/>
     </row>
     <row r="219" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A219" s="85"/>
+      <c r="A219" s="87"/>
       <c r="B219" s="76"/>
       <c r="C219" s="74" t="s">
         <v>240</v>
@@ -26516,7 +26553,7 @@
       <c r="IV219"/>
     </row>
     <row r="220" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A220" s="85"/>
+      <c r="A220" s="87"/>
       <c r="B220" s="76"/>
       <c r="C220" s="73"/>
       <c r="D220" s="30" t="s">
@@ -26531,7 +26568,7 @@
       <c r="IV220"/>
     </row>
     <row r="221" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A221" s="85"/>
+      <c r="A221" s="87"/>
       <c r="B221" s="76"/>
       <c r="C221" s="76" t="s">
         <v>241</v>
@@ -26548,7 +26585,7 @@
       <c r="IV221"/>
     </row>
     <row r="222" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A222" s="85"/>
+      <c r="A222" s="87"/>
       <c r="B222" s="76"/>
       <c r="C222" s="76"/>
       <c r="D222" s="30" t="s">
@@ -26561,7 +26598,7 @@
       <c r="IV222"/>
     </row>
     <row r="223" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A223" s="85"/>
+      <c r="A223" s="87"/>
       <c r="B223" s="76"/>
       <c r="C223" s="76"/>
       <c r="D223" s="30" t="s">
@@ -26574,7 +26611,7 @@
       <c r="IV223"/>
     </row>
     <row r="224" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A224" s="85"/>
+      <c r="A224" s="87"/>
       <c r="B224" s="74" t="s">
         <v>410</v>
       </c>
@@ -26591,7 +26628,7 @@
       <c r="IV224"/>
     </row>
     <row r="225" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A225" s="85"/>
+      <c r="A225" s="87"/>
       <c r="B225" s="78"/>
       <c r="C225" s="30" t="s">
         <v>413</v>
@@ -26606,7 +26643,7 @@
       <c r="IV225"/>
     </row>
     <row r="226" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A226" s="85"/>
+      <c r="A226" s="87"/>
       <c r="B226" s="77"/>
       <c r="C226" s="74" t="s">
         <v>246</v>
@@ -26623,7 +26660,7 @@
       <c r="IV226"/>
     </row>
     <row r="227" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A227" s="85"/>
+      <c r="A227" s="87"/>
       <c r="B227" s="77"/>
       <c r="C227" s="73"/>
       <c r="D227" s="30" t="s">
@@ -26638,7 +26675,7 @@
       <c r="IV227"/>
     </row>
     <row r="228" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A228" s="85"/>
+      <c r="A228" s="87"/>
       <c r="B228" s="77"/>
       <c r="C228" s="76" t="s">
         <v>251</v>
@@ -26655,7 +26692,7 @@
       <c r="IV228"/>
     </row>
     <row r="229" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A229" s="85"/>
+      <c r="A229" s="87"/>
       <c r="B229" s="77"/>
       <c r="C229" s="76"/>
       <c r="D229" s="30" t="s">
@@ -26670,7 +26707,7 @@
       <c r="IV229"/>
     </row>
     <row r="230" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A230" s="85"/>
+      <c r="A230" s="87"/>
       <c r="B230" s="77"/>
       <c r="C230" s="76"/>
       <c r="D230" s="30" t="s">
@@ -26685,7 +26722,7 @@
       <c r="IV230"/>
     </row>
     <row r="231" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A231" s="85"/>
+      <c r="A231" s="87"/>
       <c r="B231" s="73"/>
       <c r="C231" s="30" t="s">
         <v>258</v>
@@ -26702,7 +26739,7 @@
       <c r="IV231"/>
     </row>
     <row r="232" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A232" s="85"/>
+      <c r="A232" s="87"/>
       <c r="B232" s="72" t="s">
         <v>260</v>
       </c>
@@ -26721,7 +26758,7 @@
       <c r="IV232"/>
     </row>
     <row r="233" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A233" s="86"/>
+      <c r="A233" s="88"/>
       <c r="B233" s="73"/>
       <c r="C233" s="73"/>
       <c r="D233" s="30" t="s">
@@ -26736,7 +26773,7 @@
       <c r="IV233"/>
     </row>
     <row r="234" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A234" s="84" t="s">
+      <c r="A234" s="86" t="s">
         <v>446</v>
       </c>
       <c r="B234" s="34" t="s">
@@ -26753,7 +26790,7 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A235" s="85"/>
+      <c r="A235" s="87"/>
       <c r="B235" s="36" t="s">
         <v>265</v>
       </c>
@@ -26768,7 +26805,7 @@
       <c r="G235" s="36"/>
     </row>
     <row r="236" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A236" s="85"/>
+      <c r="A236" s="87"/>
       <c r="B236" s="36" t="s">
         <v>141</v>
       </c>
@@ -26783,7 +26820,7 @@
       <c r="G236" s="36"/>
     </row>
     <row r="237" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A237" s="85"/>
+      <c r="A237" s="87"/>
       <c r="B237" s="36" t="s">
         <v>266</v>
       </c>
@@ -26796,7 +26833,7 @@
       <c r="G237" s="36"/>
     </row>
     <row r="238" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A238" s="85"/>
+      <c r="A238" s="87"/>
       <c r="B238" s="79" t="s">
         <v>268</v>
       </c>
@@ -26811,7 +26848,7 @@
       <c r="G238" s="36"/>
     </row>
     <row r="239" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A239" s="85"/>
+      <c r="A239" s="87"/>
       <c r="B239" s="70"/>
       <c r="C239" s="36" t="s">
         <v>419</v>
@@ -26824,7 +26861,7 @@
       <c r="G239" s="36"/>
     </row>
     <row r="240" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A240" s="85"/>
+      <c r="A240" s="87"/>
       <c r="B240" s="70"/>
       <c r="C240" s="36" t="s">
         <v>420</v>
@@ -26837,7 +26874,7 @@
       <c r="G240" s="36"/>
     </row>
     <row r="241" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A241" s="85"/>
+      <c r="A241" s="87"/>
       <c r="B241" s="70"/>
       <c r="C241" s="36" t="s">
         <v>421</v>
@@ -26850,7 +26887,7 @@
       <c r="G241" s="36"/>
     </row>
     <row r="242" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A242" s="85"/>
+      <c r="A242" s="87"/>
       <c r="B242" s="70"/>
       <c r="C242" s="36" t="s">
         <v>422</v>
@@ -26863,7 +26900,7 @@
       <c r="G242" s="36"/>
     </row>
     <row r="243" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A243" s="85"/>
+      <c r="A243" s="87"/>
       <c r="B243" s="70"/>
       <c r="C243" s="36" t="s">
         <v>423</v>
@@ -26876,7 +26913,7 @@
       <c r="G243" s="36"/>
     </row>
     <row r="244" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A244" s="85"/>
+      <c r="A244" s="87"/>
       <c r="B244" s="71"/>
       <c r="C244" s="36" t="s">
         <v>424</v>
@@ -26889,7 +26926,7 @@
       <c r="G244" s="36"/>
     </row>
     <row r="245" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A245" s="85"/>
+      <c r="A245" s="87"/>
       <c r="B245" s="83" t="s">
         <v>270</v>
       </c>
@@ -26906,7 +26943,7 @@
       <c r="G245" s="37"/>
     </row>
     <row r="246" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A246" s="85"/>
+      <c r="A246" s="87"/>
       <c r="B246" s="83"/>
       <c r="C246" s="83" t="s">
         <v>273</v>
@@ -26921,7 +26958,7 @@
       <c r="G246" s="37"/>
     </row>
     <row r="247" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A247" s="85"/>
+      <c r="A247" s="87"/>
       <c r="B247" s="83"/>
       <c r="C247" s="83"/>
       <c r="D247" s="37" t="s">
@@ -26932,7 +26969,7 @@
       <c r="G247" s="37"/>
     </row>
     <row r="248" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A248" s="85"/>
+      <c r="A248" s="87"/>
       <c r="B248" s="83"/>
       <c r="C248" s="83"/>
       <c r="D248" s="37" t="s">
@@ -26943,7 +26980,7 @@
       <c r="G248" s="37"/>
     </row>
     <row r="249" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A249" s="85"/>
+      <c r="A249" s="87"/>
       <c r="B249" s="79" t="s">
         <v>426</v>
       </c>
@@ -26958,7 +26995,7 @@
       <c r="G249" s="36"/>
     </row>
     <row r="250" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A250" s="85"/>
+      <c r="A250" s="87"/>
       <c r="B250" s="70"/>
       <c r="C250" s="36" t="s">
         <v>428</v>
@@ -26971,7 +27008,7 @@
       <c r="G250" s="36"/>
     </row>
     <row r="251" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A251" s="85"/>
+      <c r="A251" s="87"/>
       <c r="B251" s="70"/>
       <c r="C251" s="36" t="s">
         <v>430</v>
@@ -26982,7 +27019,7 @@
       <c r="G251" s="36"/>
     </row>
     <row r="252" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A252" s="85"/>
+      <c r="A252" s="87"/>
       <c r="B252" s="70"/>
       <c r="C252" s="36" t="s">
         <v>431</v>
@@ -26993,7 +27030,7 @@
       <c r="G252" s="36"/>
     </row>
     <row r="253" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A253" s="86"/>
+      <c r="A253" s="88"/>
       <c r="B253" s="71"/>
       <c r="C253" s="36" t="s">
         <v>432</v>
@@ -27005,6 +27042,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="B238:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="B249:B253"/>
+    <mergeCell ref="A234:A253"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="B224:B231"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C228:C230"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="A207:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C211:C218"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="D215:D218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="B211:B223"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="A3:A195"/>
+    <mergeCell ref="B196:B206"/>
+    <mergeCell ref="C196:C206"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="B99:B119"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C115"/>
+    <mergeCell ref="B28:B98"/>
+    <mergeCell ref="C28:C54"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="B175:B182"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="B127:B174"/>
+    <mergeCell ref="C127:C170"/>
+    <mergeCell ref="D129:D161"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="E144:E148"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="E153:E157"/>
+    <mergeCell ref="D105:D113"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C98"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C55:C76"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="D72:D74"/>
     <mergeCell ref="C193:C195"/>
     <mergeCell ref="D81:D83"/>
     <mergeCell ref="A1:G1"/>
@@ -27021,79 +27131,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C55:C76"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D105:D113"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C98"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="B175:B182"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="B127:B174"/>
-    <mergeCell ref="C127:C170"/>
-    <mergeCell ref="D129:D161"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="E144:E148"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="E153:E157"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="A3:A195"/>
-    <mergeCell ref="B196:B206"/>
-    <mergeCell ref="C196:C206"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="B99:B119"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C115"/>
-    <mergeCell ref="B28:B98"/>
-    <mergeCell ref="C28:C54"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="B224:B231"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C228:C230"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="A207:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C211:C218"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="D215:D218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="B211:B223"/>
-    <mergeCell ref="B238:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="B249:B253"/>
-    <mergeCell ref="A234:A253"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
